--- a/DOCUMENTATIE/userStories.xlsx
+++ b/DOCUMENTATIE/userStories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damhe\Documents\maschool\bewijzenmap\periode2.1\BAP\bap-website\DOCUMENTATIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{745B012D-8835-4413-9F5B-3CCC38254384}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EBBA17-217A-444D-AA0D-25F7348BA835}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="187">
   <si>
     <t>Als een</t>
   </si>
@@ -589,9 +589,6 @@
   </si>
   <si>
     <t>zodat ik het kan beheren</t>
-  </si>
-  <si>
-    <t>in overleg mag je ook eigen user stories uitzoeken en bouwen natuurlijk</t>
   </si>
   <si>
     <t>in overleg mag je bepaalde user stories aanpassen als je hiervoor een goede reden hebt</t>
@@ -1533,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F8C07C-95E6-5F45-AA16-00A7B9F9E844}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1675,10 +1672,13 @@
       <c r="G5" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="H5" s="8">
+        <v>43790</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>20</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>21</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>23</v>
@@ -1779,7 +1779,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>24</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>26</v>
@@ -2405,7 +2405,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G38" s="2"/>
     </row>
@@ -2927,40 +2927,39 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="E17" s="2"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -3003,7 +3002,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3091,6 +3090,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F8D01017B67FFC40B6EAF835C0079E48" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c7194cc31030e2712d76c2006e0d75af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="584c6f05-645a-45c2-af5b-a2298cf6e1b5" xmlns:ns3="5c2aeaab-3434-48d9-b2ba-99c708216bcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="420f24c0cdcfc5bd7329cba19e0bdf1c" ns2:_="" ns3:_="">
     <xsd:import namespace="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
@@ -3293,22 +3307,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
+    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62A3BA8-675C-43E7-9E30-618B42A3DB6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3325,29 +3349,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
-    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DOCUMENTATIE/userStories.xlsx
+++ b/DOCUMENTATIE/userStories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damhe\Documents\maschool\bewijzenmap\periode2.1\BAP\bap-website\DOCUMENTATIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EBBA17-217A-444D-AA0D-25F7348BA835}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FC9E07-9FFB-47EC-9211-1F6CDE81944E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
@@ -1530,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F8C07C-95E6-5F45-AA16-00A7B9F9E844}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="94" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>22</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>25</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>26</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>28</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>29</v>

--- a/DOCUMENTATIE/userStories.xlsx
+++ b/DOCUMENTATIE/userStories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damhe\Documents\maschool\bewijzenmap\periode2.1\BAP\bap-website\DOCUMENTATIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FC9E07-9FFB-47EC-9211-1F6CDE81944E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8A31BA-8088-4BAF-B398-466B27BBAF62}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis" sheetId="1" r:id="rId1"/>
@@ -1530,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F8C07C-95E6-5F45-AA16-00A7B9F9E844}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>20</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>24</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>27</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>30</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>128</v>
@@ -2614,7 +2614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3217D4F-5AF1-9F44-A8EF-7F34D2E586CC}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="53" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/DOCUMENTATIE/userStories.xlsx
+++ b/DOCUMENTATIE/userStories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damhe\Documents\maschool\bewijzenmap\periode2.1\BAP\bap-website\DOCUMENTATIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8A31BA-8088-4BAF-B398-466B27BBAF62}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F2A31D-0D34-4A50-A5AB-791DE2DEEFE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis" sheetId="1" r:id="rId1"/>
@@ -1530,7 +1530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F8C07C-95E6-5F45-AA16-00A7B9F9E844}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2614,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3217D4F-5AF1-9F44-A8EF-7F34D2E586CC}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="53" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>180</v>
@@ -3090,21 +3090,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F8D01017B67FFC40B6EAF835C0079E48" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c7194cc31030e2712d76c2006e0d75af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="584c6f05-645a-45c2-af5b-a2298cf6e1b5" xmlns:ns3="5c2aeaab-3434-48d9-b2ba-99c708216bcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="420f24c0cdcfc5bd7329cba19e0bdf1c" ns2:_="" ns3:_="">
     <xsd:import namespace="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
@@ -3307,32 +3292,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
-    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62A3BA8-675C-43E7-9E30-618B42A3DB6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3349,4 +3324,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
+    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DOCUMENTATIE/userStories.xlsx
+++ b/DOCUMENTATIE/userStories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damhe\Documents\maschool\bewijzenmap\periode2.1\BAP\bap-website\DOCUMENTATIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F2A31D-0D34-4A50-A5AB-791DE2DEEFE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01418FA-B3A8-4022-BB86-B84AEE7D20A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis" sheetId="1" r:id="rId1"/>
@@ -1530,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F8C07C-95E6-5F45-AA16-00A7B9F9E844}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>31</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>32</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>33</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>56</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>62</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>63</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>80</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>81</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>82</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>85</v>
@@ -2614,7 +2614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3217D4F-5AF1-9F44-A8EF-7F34D2E586CC}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
+    <sheetView zoomScale="53" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -3090,6 +3090,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F8D01017B67FFC40B6EAF835C0079E48" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c7194cc31030e2712d76c2006e0d75af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="584c6f05-645a-45c2-af5b-a2298cf6e1b5" xmlns:ns3="5c2aeaab-3434-48d9-b2ba-99c708216bcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="420f24c0cdcfc5bd7329cba19e0bdf1c" ns2:_="" ns3:_="">
     <xsd:import namespace="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
@@ -3292,22 +3307,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
+    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62A3BA8-675C-43E7-9E30-618B42A3DB6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3324,29 +3349,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
-    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DOCUMENTATIE/userStories.xlsx
+++ b/DOCUMENTATIE/userStories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damhe\Documents\maschool\bewijzenmap\periode2.1\BAP\bap-website\DOCUMENTATIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01418FA-B3A8-4022-BB86-B84AEE7D20A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CEA4CF-045A-45E4-A870-DEE7B8A5166B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis" sheetId="1" r:id="rId1"/>
@@ -1530,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F8C07C-95E6-5F45-AA16-00A7B9F9E844}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>21</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>25</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>31</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>32</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>56</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>62</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>63</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>81</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>82</v>
@@ -2615,7 +2615,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScale="53" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3090,21 +3090,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F8D01017B67FFC40B6EAF835C0079E48" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c7194cc31030e2712d76c2006e0d75af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="584c6f05-645a-45c2-af5b-a2298cf6e1b5" xmlns:ns3="5c2aeaab-3434-48d9-b2ba-99c708216bcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="420f24c0cdcfc5bd7329cba19e0bdf1c" ns2:_="" ns3:_="">
     <xsd:import namespace="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
@@ -3307,32 +3292,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
-    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62A3BA8-675C-43E7-9E30-618B42A3DB6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3349,4 +3324,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
+    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DOCUMENTATIE/userStories.xlsx
+++ b/DOCUMENTATIE/userStories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damhe\Documents\maschool\bewijzenmap\periode2.1\BAP\bap-website\DOCUMENTATIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CEA4CF-045A-45E4-A870-DEE7B8A5166B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321B4B7F-03AB-44A2-A3EC-B35461C23D26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis" sheetId="1" r:id="rId1"/>
@@ -1530,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F8C07C-95E6-5F45-AA16-00A7B9F9E844}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>80</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="29" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>86</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>100</v>
@@ -3090,6 +3090,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F8D01017B67FFC40B6EAF835C0079E48" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c7194cc31030e2712d76c2006e0d75af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="584c6f05-645a-45c2-af5b-a2298cf6e1b5" xmlns:ns3="5c2aeaab-3434-48d9-b2ba-99c708216bcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="420f24c0cdcfc5bd7329cba19e0bdf1c" ns2:_="" ns3:_="">
     <xsd:import namespace="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
@@ -3292,22 +3307,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
+    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62A3BA8-675C-43E7-9E30-618B42A3DB6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3324,29 +3349,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
-    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>